--- a/Assets/DataTable/XlsFile/BattleLoop.xlsx
+++ b/Assets/DataTable/XlsFile/BattleLoop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E725B2D-29C6-4D00-8DCD-D3D8A48091DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC76E221-ED5D-4DE3-8C1F-0D0EA2845481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
-  <si>
-    <t>CharacterID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>LoopNum</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ResetNum</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>PatternNum1</t>
     <phoneticPr fontId="2"/>
@@ -72,6 +60,14 @@
   </si>
   <si>
     <t>SkillID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>patternID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LOOPCONTI</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -458,221 +454,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="1"/>
-    <col min="4" max="13" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="12" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.4" thickBot="1">
+    <row r="1" spans="1:12" ht="29.4" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1">
+    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1">
       <c r="A2" s="2">
         <v>101000</v>
       </c>
       <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-      <c r="M2">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1">
+    <row r="3" spans="1:12" ht="18.600000000000001" thickBot="1">
       <c r="A3" s="2">
         <v>102000</v>
       </c>
       <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3">
-        <v>-1</v>
-      </c>
-      <c r="L3">
-        <v>-1</v>
-      </c>
-      <c r="M3">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1">
+    <row r="4" spans="1:12" ht="18.600000000000001" thickBot="1">
       <c r="A4" s="2">
         <v>103000</v>
       </c>
       <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>-1</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-      <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="1:12" ht="18.600000000000001" thickBot="1">
       <c r="A5" s="2">
         <v>104000</v>
       </c>
       <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>-1</v>
-      </c>
-      <c r="L5">
-        <v>-1</v>
-      </c>
-      <c r="M5">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
